--- a/biology/Zoologie/Paraphaenogaster/Paraphaenogaster.xlsx
+++ b/biology/Zoologie/Paraphaenogaster/Paraphaenogaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paraphaegaster
 Paraphaenogaster est un genre fossile de fourmis dans l'ordre des Hymenoptera de la super-famille des Formicoidea, dans la famille des Formicidae et de la sous-famille des Myrmicinae, dans la tribu des Pheidolini.
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Paraphaenogaster a été créé en 1981 par l'entomologiste et paléontologue russe Gennady Mikhaïlovitch Dlussky (d) (1937–2014).
 </t>
@@ -543,7 +557,9 @@
           <t>Liste d'espèces fossiles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre s'établissent selon Paleobiology Database à :
 †Paraphaenogaster avita, Fujiyama 1970
@@ -554,8 +570,8 @@
 †Paraphaenogaster jurinei, Heer 1849
 †Paraphaenogaster lapidescens, Zhang 1989
 †Paraphaenogaster loosi, Jessen 2020
-†Paraphaenogaster maculata, Théobald 1937[1]
-†Paraphaenogaster maculipes, Theobald 1937[1]
+†Paraphaenogaster maculata, Théobald 1937
+†Paraphaenogaster maculipes, Theobald 1937
 †Paraphaenogaster microphthalma, Dlussky, 1981
 †Paraphaenogaster paludosa, Zhang 1989
 †Paraphaenogaster pannonica, Bachmayer 1960
@@ -599,9 +615,11 @@
           <t>Clade</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le cladogramme selon Catalogue of Life s'établissait[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le cladogramme selon Catalogue of Life s'établissait
 Paraphaenogaster microphthalma
 Paraphaenogaster shanwangensis</t>
         </is>
